--- a/sisepuede/ref/ingestion/demo/model_input_variables_se_demo.xlsx
+++ b/sisepuede/ref/ingestion/demo/model_input_variables_se_demo.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/git/sisepuede/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E37040-4D6D-2D4E-BBAF-E1A65BED7B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EA278D-FBFC-8B42-96D1-E6DB7D3E5DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>subsector</t>
   </si>
@@ -31,24 +31,24 @@
     <t>variable_trajectory_group</t>
   </si>
   <si>
+    <t>normalize_group</t>
+  </si>
+  <si>
+    <t>trajgroup_no_vary_q</t>
+  </si>
+  <si>
+    <t>uniform_scaling_q</t>
+  </si>
+  <si>
     <t>variable_trajectory_group_trajectory_type</t>
   </si>
   <si>
-    <t>normalize_group</t>
-  </si>
-  <si>
-    <t>trajgroup_no_vary_q</t>
-  </si>
-  <si>
-    <t>uniform_scaling_q</t>
+    <t>max_35</t>
   </si>
   <si>
     <t>min_35</t>
   </si>
   <si>
-    <t>max_35</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -160,22 +160,10 @@
     <t>Economy</t>
   </si>
   <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>gdp_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_commercial_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_industrial_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_manufacturing_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_mining_mmm_usd</t>
-  </si>
-  <si>
-    <t>General</t>
   </si>
   <si>
     <t>area_gnrl_country_ha</t>
@@ -223,8 +211,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +315,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -359,6 +349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,9 +384,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,11 +561,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS16"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -719,7 +709,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -728,120 +718,120 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>54.829919609999997</v>
+        <v>232.458</v>
       </c>
       <c r="K2">
-        <v>57.15799243</v>
+        <v>228.25299999999999</v>
       </c>
       <c r="L2">
-        <v>59.099753290000002</v>
+        <v>231.37299999999999</v>
       </c>
       <c r="M2">
-        <v>60.656431920000003</v>
+        <v>237.37200000000001</v>
       </c>
       <c r="N2">
-        <v>62.430103260000003</v>
+        <v>240.47499999999999</v>
       </c>
       <c r="O2">
-        <v>64.188281340000003</v>
+        <v>244.34700000000001</v>
       </c>
       <c r="P2">
-        <v>66.123716930000001</v>
+        <v>247.79599999999999</v>
       </c>
       <c r="Q2">
-        <v>68.184331779999994</v>
+        <v>251.416</v>
       </c>
       <c r="R2">
-        <v>70.459186880000004</v>
+        <v>255.32400000000001</v>
       </c>
       <c r="S2">
-        <v>72.950891389999995</v>
+        <v>259.50900000000001</v>
       </c>
       <c r="T2">
-        <v>75.530795019999999</v>
+        <v>263.91399999999999</v>
       </c>
       <c r="U2">
-        <v>78.202022490000004</v>
+        <v>268.49599999999998</v>
       </c>
       <c r="V2">
-        <v>80.967808599999984</v>
+        <v>273.22699999999998</v>
       </c>
       <c r="W2">
-        <v>83.831502080000007</v>
+        <v>278.08300000000003</v>
       </c>
       <c r="X2">
-        <v>86.796569480000002</v>
+        <v>283.04899999999998</v>
       </c>
       <c r="Y2">
-        <v>89.866599400000013</v>
+        <v>288.11399999999998</v>
       </c>
       <c r="Z2">
-        <v>93.045306799999992</v>
+        <v>293.27499999999998</v>
       </c>
       <c r="AA2">
-        <v>96.336537320000005</v>
+        <v>298.54000000000002</v>
       </c>
       <c r="AB2">
-        <v>99.744272069999994</v>
+        <v>303.91899999999998</v>
       </c>
       <c r="AC2">
-        <v>103.2726323</v>
+        <v>309.42599999999999</v>
       </c>
       <c r="AD2">
-        <v>106.9258845</v>
+        <v>315.07100000000003</v>
       </c>
       <c r="AE2">
-        <v>110.7084456</v>
+        <v>320.86599999999999</v>
       </c>
       <c r="AF2">
-        <v>114.62488860000001</v>
+        <v>326.82299999999998</v>
       </c>
       <c r="AG2">
-        <v>118.6799475</v>
+        <v>332.95100000000002</v>
       </c>
       <c r="AH2">
-        <v>122.8785235</v>
+        <v>339.25599999999997</v>
       </c>
       <c r="AI2">
-        <v>127.2256909</v>
+        <v>345.74200000000002</v>
       </c>
       <c r="AJ2">
-        <v>131.7267032</v>
+        <v>352.411</v>
       </c>
       <c r="AK2">
-        <v>136.38699919999999</v>
+        <v>359.267</v>
       </c>
       <c r="AL2">
-        <v>141.21221009999999</v>
+        <v>366.31</v>
       </c>
       <c r="AM2">
-        <v>146.20816640000001</v>
+        <v>373.53800000000001</v>
       </c>
       <c r="AN2">
-        <v>151.3809042</v>
+        <v>380.94600000000003</v>
       </c>
       <c r="AO2">
-        <v>156.73667270000001</v>
+        <v>388.52800000000002</v>
       </c>
       <c r="AP2">
-        <v>162.2819423</v>
+        <v>396.28500000000003</v>
       </c>
       <c r="AQ2">
-        <v>168.02341150000001</v>
+        <v>404.21100000000001</v>
       </c>
       <c r="AR2">
-        <v>173.9680161</v>
+        <v>412.303</v>
       </c>
       <c r="AS2">
-        <v>180.12293629999999</v>
+        <v>420.553</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -850,242 +840,242 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>38.831073859999997</v>
+        <v>13565900</v>
       </c>
       <c r="K3">
-        <v>40.7395256</v>
+        <v>13565900</v>
       </c>
       <c r="L3">
-        <v>42.25398672</v>
+        <v>13565900</v>
       </c>
       <c r="M3">
-        <v>43.092213819999998</v>
+        <v>13565900</v>
       </c>
       <c r="N3">
-        <v>44.391060860000003</v>
+        <v>13565900</v>
       </c>
       <c r="O3">
-        <v>45.677419729999997</v>
+        <v>13565900</v>
       </c>
       <c r="P3">
-        <v>47.091702140000002</v>
+        <v>13565900</v>
       </c>
       <c r="Q3">
-        <v>48.595983289999999</v>
+        <v>13565900</v>
       </c>
       <c r="R3">
-        <v>50.255204480000003</v>
+        <v>13565900</v>
       </c>
       <c r="S3">
-        <v>52.071246440000003</v>
+        <v>13565900</v>
       </c>
       <c r="T3">
-        <v>53.950287269999997</v>
+        <v>13565900</v>
       </c>
       <c r="U3">
-        <v>55.89469218</v>
+        <v>13565900</v>
       </c>
       <c r="V3">
-        <v>57.90688651</v>
+        <v>13565900</v>
       </c>
       <c r="W3">
-        <v>59.989368380000002</v>
+        <v>13565900</v>
       </c>
       <c r="X3">
-        <v>62.144700739999998</v>
+        <v>13565900</v>
       </c>
       <c r="Y3">
-        <v>64.375505930000003</v>
+        <v>13565900</v>
       </c>
       <c r="Z3">
-        <v>66.684470439999998</v>
+        <v>13565900</v>
       </c>
       <c r="AA3">
-        <v>69.074360580000004</v>
+        <v>13565900</v>
       </c>
       <c r="AB3">
-        <v>71.547990609999999</v>
+        <v>13565900</v>
       </c>
       <c r="AC3">
-        <v>74.108276340000003</v>
+        <v>13565900</v>
       </c>
       <c r="AD3">
-        <v>76.758182140000002</v>
+        <v>13565900</v>
       </c>
       <c r="AE3">
-        <v>79.500742560000006</v>
+        <v>13565900</v>
       </c>
       <c r="AF3">
-        <v>82.339070120000002</v>
+        <v>13565900</v>
       </c>
       <c r="AG3">
-        <v>85.276353929999999</v>
+        <v>13565900</v>
       </c>
       <c r="AH3">
-        <v>88.315883400000004</v>
+        <v>13565900</v>
       </c>
       <c r="AI3">
-        <v>91.461039319999998</v>
+        <v>13565900</v>
       </c>
       <c r="AJ3">
-        <v>94.715293509999995</v>
+        <v>13565900</v>
       </c>
       <c r="AK3">
-        <v>98.082230580000001</v>
+        <v>13565900</v>
       </c>
       <c r="AL3">
-        <v>101.5655288</v>
+        <v>13565900</v>
       </c>
       <c r="AM3">
-        <v>105.1689578</v>
+        <v>13565900</v>
       </c>
       <c r="AN3">
-        <v>108.8964306</v>
+        <v>13565900</v>
       </c>
       <c r="AO3">
-        <v>112.75200340000001</v>
+        <v>13565900</v>
       </c>
       <c r="AP3">
-        <v>116.7398659</v>
+        <v>13565900</v>
       </c>
       <c r="AQ3">
-        <v>120.8643507</v>
+        <v>13565900</v>
       </c>
       <c r="AR3">
-        <v>125.1299356</v>
+        <v>13565900</v>
       </c>
       <c r="AS3">
-        <v>129.54124849999999</v>
+        <v>13565900</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>10.64896106</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>10.939955879999999</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>11.22497854</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>11.809201720000001</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>12.14492665</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>12.479775910000001</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>12.849972429999999</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>13.246046700000001</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>13.68496934</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>14.16767585</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>14.67048758</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>15.19425785</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>15.739885149999999</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>16.30831534</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>16.9005455</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>17.517626629999999</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>18.160663809999999</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>18.830813760000002</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>19.529292779999999</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>20.257365719999999</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>21.016360070000001</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>21.80766246</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>22.632719080000001</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>23.493038729999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>24.39018952</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>25.325804909999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>26.301587300000001</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>27.31930573</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>28.380805670000001</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>29.488014039999999</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>30.642927270000001</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>31.84761623</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>33.104234409999997</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>34.415019260000001</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>35.782296639999998</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>37.208483979999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1094,120 +1084,120 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>6.2390613720000001</v>
+        <v>-0.1</v>
       </c>
       <c r="K5">
-        <v>6.5184275139999999</v>
+        <v>-0.1</v>
       </c>
       <c r="L5">
-        <v>6.9369255879999994</v>
+        <v>-0.1</v>
       </c>
       <c r="M5">
-        <v>7.1965834489999994</v>
+        <v>-0.1</v>
       </c>
       <c r="N5">
-        <v>7.4028111489999997</v>
+        <v>-0.1</v>
       </c>
       <c r="O5">
-        <v>7.6078122810000002</v>
+        <v>-0.1</v>
       </c>
       <c r="P5">
-        <v>7.8334817960000001</v>
+        <v>-0.1</v>
       </c>
       <c r="Q5">
-        <v>8.0741607609999999</v>
+        <v>-0.1</v>
       </c>
       <c r="R5">
-        <v>8.3401665959999995</v>
+        <v>-0.1</v>
       </c>
       <c r="S5">
-        <v>8.6321260829999993</v>
+        <v>-0.1</v>
       </c>
       <c r="T5">
-        <v>8.9358109379999995</v>
+        <v>-0.1</v>
       </c>
       <c r="U5">
-        <v>9.2518686779999992</v>
+        <v>-0.1</v>
       </c>
       <c r="V5">
-        <v>9.5809736050000005</v>
+        <v>-0.1</v>
       </c>
       <c r="W5">
-        <v>9.923833127</v>
+        <v>-0.1</v>
       </c>
       <c r="X5">
-        <v>10.28118606</v>
+        <v>-0.1</v>
       </c>
       <c r="Y5">
-        <v>10.65380161</v>
+        <v>-0.1</v>
       </c>
       <c r="Z5">
-        <v>11.042481220000001</v>
+        <v>-0.1</v>
       </c>
       <c r="AA5">
-        <v>11.448062569999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AB5">
-        <v>11.87141183</v>
+        <v>-0.1</v>
       </c>
       <c r="AC5">
-        <v>12.313436879999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AD5">
-        <v>12.775075429999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AE5">
-        <v>13.25730139</v>
+        <v>-0.1</v>
       </c>
       <c r="AF5">
-        <v>13.761127569999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AG5">
-        <v>14.28760694</v>
+        <v>-0.1</v>
       </c>
       <c r="AH5">
-        <v>14.837838319999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AI5">
-        <v>15.41296606</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ5">
-        <v>16.014181789999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AK5">
-        <v>16.642729620000001</v>
+        <v>-0.1</v>
       </c>
       <c r="AL5">
-        <v>17.299905039999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AM5">
-        <v>17.987056840000001</v>
+        <v>-0.1</v>
       </c>
       <c r="AN5">
-        <v>18.705596499999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AO5">
-        <v>19.456999509999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AP5">
-        <v>20.242805690000001</v>
+        <v>-0.1</v>
       </c>
       <c r="AQ5">
-        <v>21.064622400000001</v>
+        <v>-0.1</v>
       </c>
       <c r="AR5">
-        <v>21.924126579999999</v>
+        <v>-0.1</v>
       </c>
       <c r="AS5">
-        <v>22.82306754</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1216,117 +1206,117 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>2.9546714949999999</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3.080126548</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>3.1837680009999998</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.2666699989999999</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>3.3615885940000001</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>3.4559236169999998</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>3.560140589</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3.6714220900000001</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>3.7946043340000002</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>3.9298471670000001</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>4.0701966599999997</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>4.2158230870000004</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>4.3669065480000002</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>4.5236352999999996</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>4.6862072570000004</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>4.8548310480000003</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>5.0297255869999997</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>5.2111182569999999</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>5.3992497129999997</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>5.5943669649999999</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>5.7967311389999994</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>6.0066149320000006</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>6.2243022539999986</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>6.4500890210000001</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>6.6842808900000001</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>6.9271953310000001</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>7.1791624580000004</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>7.4405232909999999</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>7.7116331279999999</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>7.9928628450000003</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>8.2845934650000004</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>8.5872174359999995</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>8.9011411240000005</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>9.2267847710000002</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>9.5645835550000005</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>9.9149882050000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -1338,239 +1328,239 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="K7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="L7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="M7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="N7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="O7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="P7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="Q7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="R7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="S7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="T7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="U7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="V7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="W7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="X7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="Y7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="Z7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AA7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AB7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AC7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AD7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AE7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AF7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AG7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AH7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AI7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AJ7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AK7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AL7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AM7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AN7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AO7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AP7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AQ7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AR7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
       <c r="AS7">
-        <v>5113100</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -1582,117 +1572,117 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="K9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="L9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="M9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="N9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="O9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="P9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="Q9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="R9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="S9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="T9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="U9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="V9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="W9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="X9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="Y9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="Z9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AA9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AB9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AC9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AD9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AE9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AF9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AG9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AH9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AI9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AJ9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AK9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AL9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AM9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AN9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AO9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AP9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AQ9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AR9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
       <c r="AS9">
-        <v>-0.1</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -1704,117 +1694,117 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2.59</v>
       </c>
       <c r="K10">
-        <v>0.99</v>
+        <v>2.59</v>
       </c>
       <c r="L10">
-        <v>0.98</v>
+        <v>2.59</v>
       </c>
       <c r="M10">
-        <v>0.97</v>
+        <v>2.59</v>
       </c>
       <c r="N10">
-        <v>0.96</v>
+        <v>2.59</v>
       </c>
       <c r="O10">
-        <v>0.95</v>
+        <v>2.59</v>
       </c>
       <c r="P10">
-        <v>0.94</v>
+        <v>2.59</v>
       </c>
       <c r="Q10">
-        <v>0.93</v>
+        <v>2.59</v>
       </c>
       <c r="R10">
-        <v>0.92</v>
+        <v>2.59</v>
       </c>
       <c r="S10">
-        <v>0.91</v>
+        <v>2.59</v>
       </c>
       <c r="T10">
-        <v>0.9</v>
+        <v>2.59</v>
       </c>
       <c r="U10">
-        <v>0.89</v>
+        <v>2.59</v>
       </c>
       <c r="V10">
-        <v>0.88</v>
+        <v>2.59</v>
       </c>
       <c r="W10">
-        <v>0.87</v>
+        <v>2.59</v>
       </c>
       <c r="X10">
-        <v>0.86</v>
+        <v>2.59</v>
       </c>
       <c r="Y10">
-        <v>0.85</v>
+        <v>2.59</v>
       </c>
       <c r="Z10">
-        <v>0.84</v>
+        <v>2.59</v>
       </c>
       <c r="AA10">
-        <v>0.83</v>
+        <v>2.59</v>
       </c>
       <c r="AB10">
-        <v>0.82</v>
+        <v>2.59</v>
       </c>
       <c r="AC10">
-        <v>0.81</v>
+        <v>2.59</v>
       </c>
       <c r="AD10">
-        <v>0.8</v>
+        <v>2.59</v>
       </c>
       <c r="AE10">
-        <v>0.79</v>
+        <v>2.59</v>
       </c>
       <c r="AF10">
-        <v>0.78</v>
+        <v>2.59</v>
       </c>
       <c r="AG10">
-        <v>0.77</v>
+        <v>2.59</v>
       </c>
       <c r="AH10">
-        <v>0.76</v>
+        <v>2.59</v>
       </c>
       <c r="AI10">
-        <v>0.75</v>
+        <v>2.59</v>
       </c>
       <c r="AJ10">
-        <v>0.74</v>
+        <v>2.59</v>
       </c>
       <c r="AK10">
-        <v>0.73</v>
+        <v>2.59</v>
       </c>
       <c r="AL10">
-        <v>0.72</v>
+        <v>2.59</v>
       </c>
       <c r="AM10">
-        <v>0.71</v>
+        <v>2.59</v>
       </c>
       <c r="AN10">
-        <v>0.7</v>
+        <v>2.59</v>
       </c>
       <c r="AO10">
-        <v>0.7</v>
+        <v>2.59</v>
       </c>
       <c r="AP10">
-        <v>0.7</v>
+        <v>2.59</v>
       </c>
       <c r="AQ10">
-        <v>0.7</v>
+        <v>2.59</v>
       </c>
       <c r="AR10">
-        <v>0.7</v>
+        <v>2.59</v>
       </c>
       <c r="AS10">
-        <v>0.7</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -1826,117 +1816,117 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>-999</v>
+        <v>1270673.5842500001</v>
       </c>
       <c r="K11">
-        <v>-999</v>
+        <v>1281946.4346</v>
       </c>
       <c r="L11">
-        <v>-999</v>
+        <v>1293261.5758499999</v>
       </c>
       <c r="M11">
-        <v>-999</v>
+        <v>1304619.0079999999</v>
       </c>
       <c r="N11">
-        <v>-999</v>
+        <v>1330724.4091</v>
       </c>
       <c r="O11">
-        <v>-999</v>
+        <v>1348317.33</v>
       </c>
       <c r="P11">
-        <v>-999</v>
+        <v>1328499.4648333299</v>
       </c>
       <c r="Q11">
-        <v>-999</v>
+        <v>1308206.67733333</v>
       </c>
       <c r="R11">
-        <v>-999</v>
+        <v>1287425.5225</v>
       </c>
       <c r="S11">
-        <v>-999</v>
+        <v>1266144.7039999999</v>
       </c>
       <c r="T11">
-        <v>-999</v>
+        <v>1244362.1291666699</v>
       </c>
       <c r="U11">
-        <v>-999</v>
+        <v>1222095.888</v>
       </c>
       <c r="V11">
-        <v>-999</v>
+        <v>1199322.5989999999</v>
       </c>
       <c r="W11">
-        <v>-999</v>
+        <v>1176036.76166667</v>
       </c>
       <c r="X11">
-        <v>-999</v>
+        <v>1152236.1915</v>
       </c>
       <c r="Y11">
-        <v>-999</v>
+        <v>1127922.22</v>
       </c>
       <c r="Z11">
-        <v>-999</v>
+        <v>1103099.3863333301</v>
       </c>
       <c r="AA11">
-        <v>-999</v>
+        <v>1077775.7620000001</v>
       </c>
       <c r="AB11">
-        <v>-999</v>
+        <v>1051962.9596666701</v>
       </c>
       <c r="AC11">
-        <v>-999</v>
+        <v>1025675.0746666701</v>
       </c>
       <c r="AD11">
-        <v>-999</v>
+        <v>998926.77500000002</v>
       </c>
       <c r="AE11">
-        <v>-999</v>
+        <v>971734.29599999997</v>
       </c>
       <c r="AF11">
-        <v>-999</v>
+        <v>944114.411333333</v>
       </c>
       <c r="AG11">
-        <v>-999</v>
+        <v>916083.03</v>
       </c>
       <c r="AH11">
-        <v>-999</v>
+        <v>887656.56983333302</v>
       </c>
       <c r="AI11">
-        <v>-999</v>
+        <v>858850.933333333</v>
       </c>
       <c r="AJ11">
-        <v>-999</v>
+        <v>829681.91249999998</v>
       </c>
       <c r="AK11">
-        <v>-999</v>
+        <v>800165.33333333302</v>
       </c>
       <c r="AL11">
-        <v>-999</v>
+        <v>770315.98100000003</v>
       </c>
       <c r="AM11">
-        <v>-999</v>
+        <v>740149.21299999999</v>
       </c>
       <c r="AN11">
-        <v>-999</v>
+        <v>709679.38083333301</v>
       </c>
       <c r="AO11">
-        <v>-999</v>
+        <v>678919.58200000005</v>
       </c>
       <c r="AP11">
-        <v>-999</v>
+        <v>647877.77549999999</v>
       </c>
       <c r="AQ11">
-        <v>-999</v>
+        <v>616562.95566666604</v>
       </c>
       <c r="AR11">
-        <v>-999</v>
+        <v>584982.68616666598</v>
       </c>
       <c r="AS11">
-        <v>-999</v>
+        <v>553142.30000000005</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -1948,603 +1938,115 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>-999</v>
+        <v>3324890.9157500002</v>
       </c>
       <c r="K12">
-        <v>-999</v>
+        <v>3326056.5654000002</v>
       </c>
       <c r="L12">
-        <v>-999</v>
+        <v>3327179.9241499999</v>
       </c>
       <c r="M12">
-        <v>-999</v>
+        <v>3328260.9920000001</v>
       </c>
       <c r="N12">
-        <v>-999</v>
+        <v>3366502.5909000002</v>
       </c>
       <c r="O12">
-        <v>-999</v>
+        <v>3382620.67</v>
       </c>
       <c r="P12">
-        <v>-999</v>
+        <v>3435993.5351666701</v>
       </c>
       <c r="Q12">
-        <v>-999</v>
+        <v>3489617.3226666702</v>
       </c>
       <c r="R12">
-        <v>-999</v>
+        <v>3543439.4775</v>
       </c>
       <c r="S12">
-        <v>-999</v>
+        <v>3597407.2960000001</v>
       </c>
       <c r="T12">
-        <v>-999</v>
+        <v>3651488.8708333299</v>
       </c>
       <c r="U12">
-        <v>-999</v>
+        <v>3705710.1120000002</v>
       </c>
       <c r="V12">
-        <v>-999</v>
+        <v>3759971.4010000001</v>
       </c>
       <c r="W12">
-        <v>-999</v>
+        <v>3814218.23833333</v>
       </c>
       <c r="X12">
-        <v>-999</v>
+        <v>3868400.8084999998</v>
       </c>
       <c r="Y12">
-        <v>-999</v>
+        <v>3922475.78</v>
       </c>
       <c r="Z12">
-        <v>-999</v>
+        <v>3976406.6136666699</v>
       </c>
       <c r="AA12">
-        <v>-999</v>
+        <v>4030166.2379999999</v>
       </c>
       <c r="AB12">
-        <v>-999</v>
+        <v>4083739.0403333302</v>
       </c>
       <c r="AC12">
-        <v>-999</v>
+        <v>4137118.9253333299</v>
       </c>
       <c r="AD12">
-        <v>-999</v>
+        <v>4190303.2250000001</v>
       </c>
       <c r="AE12">
-        <v>-999</v>
+        <v>4243297.7039999999</v>
       </c>
       <c r="AF12">
-        <v>-999</v>
+        <v>4296113.58866667</v>
       </c>
       <c r="AG12">
-        <v>-999</v>
+        <v>4348761.97</v>
       </c>
       <c r="AH12">
-        <v>-999</v>
+        <v>4401260.4301666701</v>
       </c>
       <c r="AI12">
-        <v>-999</v>
+        <v>4453629.0666666701</v>
       </c>
       <c r="AJ12">
-        <v>-999</v>
+        <v>4505893.0875000004</v>
       </c>
       <c r="AK12">
-        <v>-999</v>
+        <v>4558084.6666666698</v>
       </c>
       <c r="AL12">
-        <v>-999</v>
+        <v>4610238.0190000003</v>
       </c>
       <c r="AM12">
-        <v>-999</v>
+        <v>4662399.7869999995</v>
       </c>
       <c r="AN12">
-        <v>-999</v>
+        <v>4714621.6191666704</v>
       </c>
       <c r="AO12">
-        <v>-999</v>
+        <v>4766959.4179999996</v>
       </c>
       <c r="AP12">
-        <v>-999</v>
+        <v>4819445.2244999995</v>
       </c>
       <c r="AQ12">
-        <v>-999</v>
+        <v>4872128.0443333304</v>
       </c>
       <c r="AR12">
-        <v>-999</v>
+        <v>4925058.3138333298</v>
       </c>
       <c r="AS12">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>-999</v>
-      </c>
-      <c r="K13">
-        <v>-999</v>
-      </c>
-      <c r="L13">
-        <v>-999</v>
-      </c>
-      <c r="M13">
-        <v>-999</v>
-      </c>
-      <c r="N13">
-        <v>-999</v>
-      </c>
-      <c r="O13">
-        <v>-999</v>
-      </c>
-      <c r="P13">
-        <v>-999</v>
-      </c>
-      <c r="Q13">
-        <v>-999</v>
-      </c>
-      <c r="R13">
-        <v>-999</v>
-      </c>
-      <c r="S13">
-        <v>-999</v>
-      </c>
-      <c r="T13">
-        <v>-999</v>
-      </c>
-      <c r="U13">
-        <v>-999</v>
-      </c>
-      <c r="V13">
-        <v>-999</v>
-      </c>
-      <c r="W13">
-        <v>-999</v>
-      </c>
-      <c r="X13">
-        <v>-999</v>
-      </c>
-      <c r="Y13">
-        <v>-999</v>
-      </c>
-      <c r="Z13">
-        <v>-999</v>
-      </c>
-      <c r="AA13">
-        <v>-999</v>
-      </c>
-      <c r="AB13">
-        <v>-999</v>
-      </c>
-      <c r="AC13">
-        <v>-999</v>
-      </c>
-      <c r="AD13">
-        <v>-999</v>
-      </c>
-      <c r="AE13">
-        <v>-999</v>
-      </c>
-      <c r="AF13">
-        <v>-999</v>
-      </c>
-      <c r="AG13">
-        <v>-999</v>
-      </c>
-      <c r="AH13">
-        <v>-999</v>
-      </c>
-      <c r="AI13">
-        <v>-999</v>
-      </c>
-      <c r="AJ13">
-        <v>-999</v>
-      </c>
-      <c r="AK13">
-        <v>-999</v>
-      </c>
-      <c r="AL13">
-        <v>-999</v>
-      </c>
-      <c r="AM13">
-        <v>-999</v>
-      </c>
-      <c r="AN13">
-        <v>-999</v>
-      </c>
-      <c r="AO13">
-        <v>-999</v>
-      </c>
-      <c r="AP13">
-        <v>-999</v>
-      </c>
-      <c r="AQ13">
-        <v>-999</v>
-      </c>
-      <c r="AR13">
-        <v>-999</v>
-      </c>
-      <c r="AS13">
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>3.145207224</v>
-      </c>
-      <c r="K14">
-        <v>3.145207224</v>
-      </c>
-      <c r="L14">
-        <v>3.145207224</v>
-      </c>
-      <c r="M14">
-        <v>3.145207224</v>
-      </c>
-      <c r="N14">
-        <v>3.145207224</v>
-      </c>
-      <c r="O14">
-        <v>3.145207224</v>
-      </c>
-      <c r="P14">
-        <v>3.145207224</v>
-      </c>
-      <c r="Q14">
-        <v>3.145207224</v>
-      </c>
-      <c r="R14">
-        <v>3.145207224</v>
-      </c>
-      <c r="S14">
-        <v>3.145207224</v>
-      </c>
-      <c r="T14">
-        <v>3.145207224</v>
-      </c>
-      <c r="U14">
-        <v>3.145207224</v>
-      </c>
-      <c r="V14">
-        <v>3.145207224</v>
-      </c>
-      <c r="W14">
-        <v>3.145207224</v>
-      </c>
-      <c r="X14">
-        <v>3.145207224</v>
-      </c>
-      <c r="Y14">
-        <v>3.145207224</v>
-      </c>
-      <c r="Z14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AA14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AB14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AC14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AD14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AE14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AF14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AG14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AH14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AI14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AJ14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AK14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AL14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AM14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AN14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AO14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AP14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AQ14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AR14">
-        <v>3.145207224</v>
-      </c>
-      <c r="AS14">
-        <v>3.145207224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1939122</v>
-      </c>
-      <c r="K15">
-        <v>1935241</v>
-      </c>
-      <c r="L15">
-        <v>1930482</v>
-      </c>
-      <c r="M15">
-        <v>1924785</v>
-      </c>
-      <c r="N15">
-        <v>1917502</v>
-      </c>
-      <c r="O15">
-        <v>1909226</v>
-      </c>
-      <c r="P15">
-        <v>1899964</v>
-      </c>
-      <c r="Q15">
-        <v>1889752</v>
-      </c>
-      <c r="R15">
-        <v>1878616</v>
-      </c>
-      <c r="S15">
-        <v>1866592</v>
-      </c>
-      <c r="T15">
-        <v>1853714</v>
-      </c>
-      <c r="U15">
-        <v>1840003</v>
-      </c>
-      <c r="V15">
-        <v>1825469</v>
-      </c>
-      <c r="W15">
-        <v>1810127</v>
-      </c>
-      <c r="X15">
-        <v>1793994</v>
-      </c>
-      <c r="Y15">
-        <v>1777085</v>
-      </c>
-      <c r="Z15">
-        <v>1759419</v>
-      </c>
-      <c r="AA15">
-        <v>1741025</v>
-      </c>
-      <c r="AB15">
-        <v>1721923</v>
-      </c>
-      <c r="AC15">
-        <v>1702153</v>
-      </c>
-      <c r="AD15">
-        <v>1681739</v>
-      </c>
-      <c r="AE15">
-        <v>1674776</v>
-      </c>
-      <c r="AF15">
-        <v>1667323</v>
-      </c>
-      <c r="AG15">
-        <v>1659388</v>
-      </c>
-      <c r="AH15">
-        <v>1650984</v>
-      </c>
-      <c r="AI15">
-        <v>1642122</v>
-      </c>
-      <c r="AJ15">
-        <v>1632809</v>
-      </c>
-      <c r="AK15">
-        <v>1623058</v>
-      </c>
-      <c r="AL15">
-        <v>1612873</v>
-      </c>
-      <c r="AM15">
-        <v>1602249</v>
-      </c>
-      <c r="AN15">
-        <v>1591194</v>
-      </c>
-      <c r="AO15">
-        <v>1579717</v>
-      </c>
-      <c r="AP15">
-        <v>1567831</v>
-      </c>
-      <c r="AQ15">
-        <v>1555549</v>
-      </c>
-      <c r="AR15">
-        <v>1542882</v>
-      </c>
-      <c r="AS15">
-        <v>1529843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>2908682</v>
-      </c>
-      <c r="K16">
-        <v>2964104</v>
-      </c>
-      <c r="L16">
-        <v>3019472</v>
-      </c>
-      <c r="M16">
-        <v>3074656</v>
-      </c>
-      <c r="N16">
-        <v>3128555</v>
-      </c>
-      <c r="O16">
-        <v>3182044</v>
-      </c>
-      <c r="P16">
-        <v>3235075</v>
-      </c>
-      <c r="Q16">
-        <v>3287652</v>
-      </c>
-      <c r="R16">
-        <v>3339763</v>
-      </c>
-      <c r="S16">
-        <v>3391415</v>
-      </c>
-      <c r="T16">
-        <v>3442611</v>
-      </c>
-      <c r="U16">
-        <v>3493338</v>
-      </c>
-      <c r="V16">
-        <v>3543557</v>
-      </c>
-      <c r="W16">
-        <v>3593238</v>
-      </c>
-      <c r="X16">
-        <v>3642352</v>
-      </c>
-      <c r="Y16">
-        <v>3690869</v>
-      </c>
-      <c r="Z16">
-        <v>3738764</v>
-      </c>
-      <c r="AA16">
-        <v>3786038</v>
-      </c>
-      <c r="AB16">
-        <v>3832667</v>
-      </c>
-      <c r="AC16">
-        <v>3878676</v>
-      </c>
-      <c r="AD16">
-        <v>3924057</v>
-      </c>
-      <c r="AE16">
-        <v>3954723</v>
-      </c>
-      <c r="AF16">
-        <v>3984621</v>
-      </c>
-      <c r="AG16">
-        <v>4013735</v>
-      </c>
-      <c r="AH16">
-        <v>4042064</v>
-      </c>
-      <c r="AI16">
-        <v>4069605</v>
-      </c>
-      <c r="AJ16">
-        <v>4096345</v>
-      </c>
-      <c r="AK16">
-        <v>4122279</v>
-      </c>
-      <c r="AL16">
-        <v>4147386</v>
-      </c>
-      <c r="AM16">
-        <v>4171623</v>
-      </c>
-      <c r="AN16">
-        <v>4194965</v>
-      </c>
-      <c r="AO16">
-        <v>4217411</v>
-      </c>
-      <c r="AP16">
-        <v>4238952</v>
-      </c>
-      <c r="AQ16">
-        <v>4259587</v>
-      </c>
-      <c r="AR16">
-        <v>4279316</v>
-      </c>
-      <c r="AS16">
-        <v>4298132</v>
+        <v>4978280.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>